--- a/Code/Results/Cases/Case_8_25/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_8_25/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.80823106210286</v>
+        <v>13.43103971449799</v>
       </c>
       <c r="C2">
-        <v>7.582477270749442</v>
+        <v>7.826038833739478</v>
       </c>
       <c r="D2">
-        <v>5.3411578079462</v>
+        <v>5.287387262117329</v>
       </c>
       <c r="E2">
-        <v>8.612266888677048</v>
+        <v>8.626308314147089</v>
       </c>
       <c r="F2">
-        <v>19.90600392171404</v>
+        <v>18.96482359804684</v>
       </c>
       <c r="G2">
-        <v>2.105072592318004</v>
+        <v>4.499910128812253</v>
       </c>
       <c r="H2">
-        <v>2.208405876788148</v>
+        <v>1.999372657593051</v>
       </c>
       <c r="I2">
-        <v>3.09168395865456</v>
+        <v>2.856084555411466</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>16.24267828594349</v>
+        <v>15.36877107045484</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>12.79604117786612</v>
       </c>
       <c r="M2">
-        <v>11.23579496136726</v>
+        <v>9.959417322664656</v>
       </c>
       <c r="N2">
-        <v>7.32108889522862</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>11.36059567006124</v>
       </c>
       <c r="P2">
-        <v>12.95805525797968</v>
+        <v>7.463404245511629</v>
       </c>
       <c r="Q2">
-        <v>16.46582527713959</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.68254137018811</v>
+      </c>
+      <c r="S2">
+        <v>15.60996849454673</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.94626749367442</v>
+        <v>12.59358582504646</v>
       </c>
       <c r="C3">
-        <v>7.363603360490901</v>
+        <v>7.572716920548049</v>
       </c>
       <c r="D3">
-        <v>5.169756460159468</v>
+        <v>5.086611315426661</v>
       </c>
       <c r="E3">
-        <v>8.356078029946476</v>
+        <v>8.413581286155598</v>
       </c>
       <c r="F3">
-        <v>19.55738260351945</v>
+        <v>18.62365552541165</v>
       </c>
       <c r="G3">
-        <v>2.108482566395308</v>
+        <v>4.95072333020588</v>
       </c>
       <c r="H3">
-        <v>2.390152929551636</v>
+        <v>2.160762658565581</v>
       </c>
       <c r="I3">
-        <v>3.234091029693935</v>
+        <v>2.97463547636987</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>16.22881411784595</v>
+        <v>15.3692054043249</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>12.89998556328308</v>
       </c>
       <c r="M3">
-        <v>10.58220491387613</v>
+        <v>9.877814692968784</v>
       </c>
       <c r="N3">
-        <v>7.049397736979289</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>10.72682780519483</v>
       </c>
       <c r="P3">
-        <v>13.09243590178679</v>
+        <v>7.19757877366692</v>
       </c>
       <c r="Q3">
-        <v>16.3748349520046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.79850563469606</v>
+      </c>
+      <c r="S3">
+        <v>15.51766287715287</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.38529369421306</v>
+        <v>12.05242495525691</v>
       </c>
       <c r="C4">
-        <v>7.225942315594433</v>
+        <v>7.414252578534311</v>
       </c>
       <c r="D4">
-        <v>5.060987685186689</v>
+        <v>4.958877186025902</v>
       </c>
       <c r="E4">
-        <v>8.193041750411476</v>
+        <v>8.278437047803857</v>
       </c>
       <c r="F4">
-        <v>19.34788636037534</v>
+        <v>18.41571209747259</v>
       </c>
       <c r="G4">
-        <v>2.110651078346553</v>
+        <v>5.237563443135204</v>
       </c>
       <c r="H4">
-        <v>2.506055788820612</v>
+        <v>2.263764806387911</v>
       </c>
       <c r="I4">
-        <v>3.325658708501908</v>
+        <v>3.051298013413821</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>16.22346697613573</v>
+        <v>15.370940668603</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>12.96413739484353</v>
       </c>
       <c r="M4">
-        <v>10.15876564911551</v>
+        <v>9.844351212780584</v>
       </c>
       <c r="N4">
-        <v>6.877281155603641</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>10.3168260818509</v>
       </c>
       <c r="P4">
-        <v>13.17649181368147</v>
+        <v>7.029595229156368</v>
       </c>
       <c r="Q4">
-        <v>16.32396735406182</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.87123647444717</v>
+      </c>
+      <c r="S4">
+        <v>15.46368378616846</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.14364437053954</v>
+        <v>11.81871724554991</v>
       </c>
       <c r="C5">
-        <v>7.172311810302282</v>
+        <v>7.352819691396796</v>
       </c>
       <c r="D5">
-        <v>5.016912066678622</v>
+        <v>4.906916621606382</v>
       </c>
       <c r="E5">
-        <v>8.12300741202632</v>
+        <v>8.220166000918008</v>
       </c>
       <c r="F5">
-        <v>19.25741633987372</v>
+        <v>18.32496626225659</v>
       </c>
       <c r="G5">
-        <v>2.111559791721791</v>
+        <v>5.357827213741534</v>
       </c>
       <c r="H5">
-        <v>2.554696285932514</v>
+        <v>2.307022321029633</v>
       </c>
       <c r="I5">
-        <v>3.366724193585788</v>
+        <v>3.086756833880345</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>16.21719151135127</v>
+        <v>15.36716339444993</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>12.98589619784595</v>
       </c>
       <c r="M5">
-        <v>9.980377550607354</v>
+        <v>9.832135056970046</v>
       </c>
       <c r="N5">
-        <v>6.806316274791016</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>10.14427685629887</v>
       </c>
       <c r="P5">
-        <v>13.21072218243281</v>
+        <v>6.960451208008026</v>
       </c>
       <c r="Q5">
-        <v>16.29989814326198</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.90092895230124</v>
+      </c>
+      <c r="S5">
+        <v>15.43767971927194</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.0967693432536</v>
+        <v>11.7731092456163</v>
       </c>
       <c r="C6">
-        <v>7.167394285178766</v>
+        <v>7.347295354970343</v>
       </c>
       <c r="D6">
-        <v>5.010898111227357</v>
+        <v>4.899663101829648</v>
       </c>
       <c r="E6">
-        <v>8.108601076734187</v>
+        <v>8.207857978454269</v>
       </c>
       <c r="F6">
-        <v>19.23473881070348</v>
+        <v>18.3020187528684</v>
       </c>
       <c r="G6">
-        <v>2.111719126969733</v>
+        <v>5.378951501589675</v>
       </c>
       <c r="H6">
-        <v>2.563221530328448</v>
+        <v>2.314619965787418</v>
       </c>
       <c r="I6">
-        <v>3.377080688862479</v>
+        <v>3.096885328588133</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>16.21023443860596</v>
+        <v>15.36063957855972</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>12.98406246320265</v>
       </c>
       <c r="M6">
-        <v>9.950037039167983</v>
+        <v>9.826908907591898</v>
       </c>
       <c r="N6">
-        <v>6.794991731520998</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>10.11495472074872</v>
       </c>
       <c r="P6">
-        <v>13.21592065137598</v>
+        <v>6.949435239264474</v>
       </c>
       <c r="Q6">
-        <v>16.29037339589303</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.90547935175329</v>
+      </c>
+      <c r="S6">
+        <v>15.42768324533797</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.36532514671007</v>
+        <v>12.02221459440074</v>
       </c>
       <c r="C7">
-        <v>7.236175035861418</v>
+        <v>7.414573594682157</v>
       </c>
       <c r="D7">
-        <v>5.064077098260755</v>
+        <v>4.969739674108884</v>
       </c>
       <c r="E7">
-        <v>8.18483122086019</v>
+        <v>8.274473520261735</v>
       </c>
       <c r="F7">
-        <v>19.32567976569342</v>
+        <v>18.35157269152931</v>
       </c>
       <c r="G7">
-        <v>2.110682826377868</v>
+        <v>5.294417152130928</v>
       </c>
       <c r="H7">
-        <v>2.507731777313539</v>
+        <v>2.26646995729224</v>
       </c>
       <c r="I7">
-        <v>3.335399784513559</v>
+        <v>3.064049442433052</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>16.20712841820055</v>
+        <v>15.33550422786823</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>12.93266293083728</v>
       </c>
       <c r="M7">
-        <v>10.15534416673479</v>
+        <v>9.822494611552605</v>
       </c>
       <c r="N7">
-        <v>6.877773654895168</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>10.30042796031639</v>
       </c>
       <c r="P7">
-        <v>13.17561115141426</v>
+        <v>7.028032883801794</v>
       </c>
       <c r="Q7">
-        <v>16.30838467417234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.86911169189122</v>
+      </c>
+      <c r="S7">
+        <v>15.41779818848632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.49713065410887</v>
+        <v>13.09151649807837</v>
       </c>
       <c r="C8">
-        <v>7.521904921220777</v>
+        <v>7.71805501612773</v>
       </c>
       <c r="D8">
-        <v>5.287568695936032</v>
+        <v>5.24898841793424</v>
       </c>
       <c r="E8">
-        <v>8.515926678802538</v>
+        <v>8.557412642141509</v>
       </c>
       <c r="F8">
-        <v>19.75779005849343</v>
+        <v>18.68541678526147</v>
       </c>
       <c r="G8">
-        <v>2.106257466528106</v>
+        <v>4.943509337772616</v>
       </c>
       <c r="H8">
-        <v>2.271460237580132</v>
+        <v>2.059062340505688</v>
       </c>
       <c r="I8">
-        <v>3.151671139222072</v>
+        <v>2.914111700186484</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>16.21589696687262</v>
+        <v>15.28486502800852</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>12.76174550556883</v>
       </c>
       <c r="M8">
-        <v>11.01377322635629</v>
+        <v>9.870171047729846</v>
       </c>
       <c r="N8">
-        <v>7.230407174793735</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>11.10437185670844</v>
       </c>
       <c r="P8">
-        <v>13.00252652926752</v>
+        <v>7.368117339119139</v>
       </c>
       <c r="Q8">
-        <v>16.41346363992869</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.71747054268643</v>
+      </c>
+      <c r="S8">
+        <v>15.45962674154492</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.48999643593102</v>
+        <v>15.0558753601695</v>
       </c>
       <c r="C9">
-        <v>8.036999725121371</v>
+        <v>8.308592877144481</v>
       </c>
       <c r="D9">
-        <v>5.690348513054164</v>
+        <v>5.724591107386113</v>
       </c>
       <c r="E9">
-        <v>9.130032195257673</v>
+        <v>9.072498597446076</v>
       </c>
       <c r="F9">
-        <v>20.67434500133362</v>
+        <v>19.5386552560911</v>
       </c>
       <c r="G9">
-        <v>2.098128416421064</v>
+        <v>3.988906182209571</v>
       </c>
       <c r="H9">
-        <v>1.84006631804876</v>
+        <v>1.677118144759204</v>
       </c>
       <c r="I9">
-        <v>2.808719822453132</v>
+        <v>2.628084541027463</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>16.28771122023029</v>
+        <v>15.29588798767407</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>12.51505638944119</v>
       </c>
       <c r="M9">
-        <v>12.52174647111786</v>
+        <v>10.15594618324629</v>
       </c>
       <c r="N9">
-        <v>7.874694725630089</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>12.56281535204133</v>
       </c>
       <c r="P9">
-        <v>12.67695321535561</v>
+        <v>7.999401826884746</v>
       </c>
       <c r="Q9">
-        <v>16.68678481350691</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.43868287121001</v>
+      </c>
+      <c r="S9">
+        <v>15.69994579656891</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.73853990088837</v>
+        <v>16.23539997461063</v>
       </c>
       <c r="C10">
-        <v>8.438009899429108</v>
+        <v>8.704482950616475</v>
       </c>
       <c r="D10">
-        <v>5.986184034614185</v>
+        <v>6.10868555123337</v>
       </c>
       <c r="E10">
-        <v>9.388500309968903</v>
+        <v>9.29191684065391</v>
       </c>
       <c r="F10">
-        <v>21.25995510026699</v>
+        <v>19.8556858360427</v>
       </c>
       <c r="G10">
-        <v>2.092601263946242</v>
+        <v>4.697652723943123</v>
       </c>
       <c r="H10">
-        <v>1.577614237032383</v>
+        <v>1.691782151440604</v>
       </c>
       <c r="I10">
-        <v>2.587448050674871</v>
+        <v>2.528028063691963</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>16.2797280784957</v>
+        <v>15.13944116131979</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>12.21352346298444</v>
       </c>
       <c r="M10">
-        <v>13.50997318097517</v>
+        <v>10.29553995623292</v>
       </c>
       <c r="N10">
-        <v>8.185839748833706</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>13.45932767779426</v>
       </c>
       <c r="P10">
-        <v>12.44142945087504</v>
+        <v>8.293050559589943</v>
       </c>
       <c r="Q10">
-        <v>16.83481519045187</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.24047049194984</v>
+      </c>
+      <c r="S10">
+        <v>15.65580577668362</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.81542603887236</v>
+        <v>16.23506245485898</v>
       </c>
       <c r="C11">
-        <v>8.949386360157211</v>
+        <v>9.102271628527266</v>
       </c>
       <c r="D11">
-        <v>6.274014785149364</v>
+        <v>6.503671637966915</v>
       </c>
       <c r="E11">
-        <v>8.239148481493483</v>
+        <v>8.210700902311235</v>
       </c>
       <c r="F11">
-        <v>20.68636776629647</v>
+        <v>18.86066663905116</v>
       </c>
       <c r="G11">
-        <v>2.090982994536282</v>
+        <v>8.273490409535881</v>
       </c>
       <c r="H11">
-        <v>2.668398934854094</v>
+        <v>2.658774526550613</v>
       </c>
       <c r="I11">
-        <v>2.552691528319756</v>
+        <v>2.575005951757942</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>15.6581593486188</v>
+        <v>14.37308560347227</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.60692021320495</v>
       </c>
       <c r="M11">
-        <v>13.84883216195886</v>
+        <v>9.774579631250855</v>
       </c>
       <c r="N11">
-        <v>7.212618114932301</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>13.66115001125132</v>
       </c>
       <c r="P11">
-        <v>12.32680556806048</v>
+        <v>7.294543505209733</v>
       </c>
       <c r="Q11">
-        <v>16.26882955860612</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.18603175861012</v>
+      </c>
+      <c r="S11">
+        <v>14.793842231571</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.63635618638078</v>
+        <v>16.04047742928866</v>
       </c>
       <c r="C12">
-        <v>9.312479968580998</v>
+        <v>9.389041384074936</v>
       </c>
       <c r="D12">
-        <v>6.455925829099727</v>
+        <v>6.734082149341172</v>
       </c>
       <c r="E12">
-        <v>7.415143514870383</v>
+        <v>7.430246226199927</v>
       </c>
       <c r="F12">
-        <v>20.09363028310426</v>
+        <v>18.10664486624204</v>
       </c>
       <c r="G12">
-        <v>2.090665040930515</v>
+        <v>10.10053678008816</v>
       </c>
       <c r="H12">
-        <v>4.092953320597537</v>
+        <v>4.05469335823002</v>
       </c>
       <c r="I12">
-        <v>2.547548964811676</v>
+        <v>2.574725196070911</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>15.16397751099341</v>
+        <v>13.86626649177733</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>11.24659811364731</v>
       </c>
       <c r="M12">
-        <v>13.93523898564633</v>
+        <v>9.377605811690239</v>
       </c>
       <c r="N12">
-        <v>6.367657115082441</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>13.6871656025359</v>
       </c>
       <c r="P12">
-        <v>12.29632700258663</v>
+        <v>6.438926854328554</v>
       </c>
       <c r="Q12">
-        <v>15.77460091334213</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>12.20447594653755</v>
+      </c>
+      <c r="S12">
+        <v>14.20163764714527</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.22145875210433</v>
+        <v>15.6788350002096</v>
       </c>
       <c r="C13">
-        <v>9.600038514068558</v>
+        <v>9.664959735094261</v>
       </c>
       <c r="D13">
-        <v>6.574862741192537</v>
+        <v>6.838018766032401</v>
       </c>
       <c r="E13">
-        <v>6.838997328163201</v>
+        <v>6.884375498346916</v>
       </c>
       <c r="F13">
-        <v>19.41026148092807</v>
+        <v>17.5409881853476</v>
       </c>
       <c r="G13">
-        <v>2.091356847698821</v>
+        <v>9.713749801347843</v>
       </c>
       <c r="H13">
-        <v>5.536682689053086</v>
+        <v>5.505452542287926</v>
       </c>
       <c r="I13">
-        <v>2.580886911672195</v>
+        <v>2.546944461924485</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>14.71490822880866</v>
+        <v>13.53082404754913</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>11.03391892744579</v>
       </c>
       <c r="M13">
-        <v>13.8342672570468</v>
+        <v>9.06908702191472</v>
       </c>
       <c r="N13">
-        <v>5.582102158901917</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>13.60529004685919</v>
       </c>
       <c r="P13">
-        <v>12.32425731368732</v>
+        <v>5.656860858199584</v>
       </c>
       <c r="Q13">
-        <v>15.28046546505249</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>12.25686587010705</v>
+      </c>
+      <c r="S13">
+        <v>13.81247075084511</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.81436117415865</v>
+        <v>15.34015110557155</v>
       </c>
       <c r="C14">
-        <v>9.775312388642471</v>
+        <v>9.864618320715286</v>
       </c>
       <c r="D14">
-        <v>6.631832991473721</v>
+        <v>6.855293303115843</v>
       </c>
       <c r="E14">
-        <v>6.618892598714858</v>
+        <v>6.686537235011363</v>
       </c>
       <c r="F14">
-        <v>18.88235035481257</v>
+        <v>17.2146809283054</v>
       </c>
       <c r="G14">
-        <v>2.092298745224427</v>
+        <v>8.478107385587588</v>
       </c>
       <c r="H14">
-        <v>6.553853008542243</v>
+        <v>6.524226990221506</v>
       </c>
       <c r="I14">
-        <v>2.624656161600344</v>
+        <v>2.516899810230339</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>14.42163247736966</v>
+        <v>13.36271608595968</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>10.93873788216263</v>
       </c>
       <c r="M14">
-        <v>13.67737338053885</v>
+        <v>8.889376440581682</v>
       </c>
       <c r="N14">
-        <v>5.087158798742378</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>13.49688576890302</v>
       </c>
       <c r="P14">
-        <v>12.37091710722968</v>
+        <v>5.170071262429843</v>
       </c>
       <c r="Q14">
-        <v>14.9320506130797</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>12.30431045180886</v>
+      </c>
+      <c r="S14">
+        <v>13.61920174347218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.6579166563726</v>
+        <v>15.21391430365846</v>
       </c>
       <c r="C15">
-        <v>9.80435737688355</v>
+        <v>9.915119188742437</v>
       </c>
       <c r="D15">
-        <v>6.633205552063967</v>
+        <v>6.834464167870595</v>
       </c>
       <c r="E15">
-        <v>6.590008762317388</v>
+        <v>6.665816026835309</v>
       </c>
       <c r="F15">
-        <v>18.72879559364414</v>
+        <v>17.16051712128347</v>
       </c>
       <c r="G15">
-        <v>2.092761659369517</v>
+        <v>7.776335786296015</v>
       </c>
       <c r="H15">
-        <v>6.789959486555956</v>
+        <v>6.759800989258975</v>
       </c>
       <c r="I15">
-        <v>2.648722609939514</v>
+        <v>2.523460711565357</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>14.35512941112122</v>
+        <v>13.34547438416988</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>10.93482109901227</v>
       </c>
       <c r="M15">
-        <v>13.59806327877607</v>
+        <v>8.857284472246926</v>
       </c>
       <c r="N15">
-        <v>4.975453996637177</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>13.44467488325485</v>
       </c>
       <c r="P15">
-        <v>12.39268667410959</v>
+        <v>5.062565314159525</v>
       </c>
       <c r="Q15">
-        <v>14.84360401707047</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>12.31954186178764</v>
+      </c>
+      <c r="S15">
+        <v>13.60249695996255</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.16699315854402</v>
+        <v>14.83690667156112</v>
       </c>
       <c r="C16">
-        <v>9.594762433600184</v>
+        <v>9.83167339990044</v>
       </c>
       <c r="D16">
-        <v>6.492498166181412</v>
+        <v>6.589220279369519</v>
       </c>
       <c r="E16">
-        <v>6.568873415605955</v>
+        <v>6.667381921776649</v>
       </c>
       <c r="F16">
-        <v>18.58106494570076</v>
+        <v>17.42646381596259</v>
       </c>
       <c r="G16">
-        <v>2.094986283555528</v>
+        <v>4.73482519974602</v>
       </c>
       <c r="H16">
-        <v>6.585156709609645</v>
+        <v>6.545870549632101</v>
       </c>
       <c r="I16">
-        <v>2.742209017591565</v>
+        <v>2.592329056381189</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>14.4429083054798</v>
+        <v>13.59016699514813</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.13854725513447</v>
       </c>
       <c r="M16">
-        <v>13.20694596756188</v>
+        <v>8.982188990665662</v>
       </c>
       <c r="N16">
-        <v>4.973468318970558</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>13.18192052075574</v>
       </c>
       <c r="P16">
-        <v>12.47863700225117</v>
+        <v>5.080401384796786</v>
       </c>
       <c r="Q16">
-        <v>14.86617237177371</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>12.35248495615099</v>
+      </c>
+      <c r="S16">
+        <v>13.9059260566533</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.01808621837677</v>
+        <v>14.7181729915134</v>
       </c>
       <c r="C17">
-        <v>9.333826241244765</v>
+        <v>9.630441222120902</v>
       </c>
       <c r="D17">
-        <v>6.351589384873406</v>
+        <v>6.402865431050933</v>
       </c>
       <c r="E17">
-        <v>6.635659404151763</v>
+        <v>6.728165546428036</v>
       </c>
       <c r="F17">
-        <v>18.75496161826506</v>
+        <v>17.75689574719623</v>
       </c>
       <c r="G17">
-        <v>2.09620004796157</v>
+        <v>3.824013716377944</v>
       </c>
       <c r="H17">
-        <v>5.855873478080177</v>
+        <v>5.806662241355219</v>
       </c>
       <c r="I17">
-        <v>2.791587953343351</v>
+        <v>2.629615794215022</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>14.66327253114373</v>
+        <v>13.85423230644233</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>11.34869121832795</v>
       </c>
       <c r="M17">
-        <v>12.98786386573013</v>
+        <v>9.15364891579538</v>
       </c>
       <c r="N17">
-        <v>5.224175627811358</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>13.01960340861895</v>
       </c>
       <c r="P17">
-        <v>12.52066844402254</v>
+        <v>5.341234384376238</v>
       </c>
       <c r="Q17">
-        <v>15.06939516632344</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.36534916966986</v>
+      </c>
+      <c r="S17">
+        <v>14.21089393623178</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.16395053376357</v>
+        <v>14.84391283160578</v>
       </c>
       <c r="C18">
-        <v>8.999564854090913</v>
+        <v>9.326649967386915</v>
       </c>
       <c r="D18">
-        <v>6.194302676631354</v>
+        <v>6.228842738817796</v>
       </c>
       <c r="E18">
-        <v>6.965478473021383</v>
+        <v>7.019184499522861</v>
       </c>
       <c r="F18">
-        <v>19.23577406349242</v>
+        <v>18.27310436929208</v>
       </c>
       <c r="G18">
-        <v>2.096617644857623</v>
+        <v>3.580962955943303</v>
       </c>
       <c r="H18">
-        <v>4.617332107543205</v>
+        <v>4.553145063853727</v>
       </c>
       <c r="I18">
-        <v>2.795740080291055</v>
+        <v>2.627765905097792</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>15.04032389926878</v>
+        <v>14.21535391833824</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>11.62347676772143</v>
       </c>
       <c r="M18">
-        <v>12.89864512211157</v>
+        <v>9.422277705678583</v>
       </c>
       <c r="N18">
-        <v>5.787377101097054</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>12.9530851459688</v>
       </c>
       <c r="P18">
-        <v>12.53621793875592</v>
+        <v>5.90946408136065</v>
       </c>
       <c r="Q18">
-        <v>15.46110849721927</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.36028616507563</v>
+      </c>
+      <c r="S18">
+        <v>14.62041674248647</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.49949006366108</v>
+        <v>15.13818049027909</v>
       </c>
       <c r="C19">
-        <v>8.678679585554892</v>
+        <v>9.018608371074551</v>
       </c>
       <c r="D19">
-        <v>6.046528099220247</v>
+        <v>6.081143188017305</v>
       </c>
       <c r="E19">
-        <v>7.694575544261937</v>
+        <v>7.687422277890238</v>
       </c>
       <c r="F19">
-        <v>19.88663780171084</v>
+        <v>18.89282934109086</v>
       </c>
       <c r="G19">
-        <v>2.096336798261672</v>
+        <v>3.486293803977424</v>
       </c>
       <c r="H19">
-        <v>3.157599720054236</v>
+        <v>3.067439680782456</v>
       </c>
       <c r="I19">
-        <v>2.780764065131182</v>
+        <v>2.616376609910139</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>15.50259371865379</v>
+        <v>14.6270884060891</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>11.92836020570851</v>
       </c>
       <c r="M19">
-        <v>12.92090947435295</v>
+        <v>9.747498813767436</v>
       </c>
       <c r="N19">
-        <v>6.62872330416131</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>12.97837064992436</v>
       </c>
       <c r="P19">
-        <v>12.53989193022698</v>
+        <v>6.752414571221534</v>
       </c>
       <c r="Q19">
-        <v>15.95198118461513</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.34762270233504</v>
+      </c>
+      <c r="S19">
+        <v>15.08305678796936</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.37769172211323</v>
+        <v>15.92196668720339</v>
       </c>
       <c r="C20">
-        <v>8.367609315191887</v>
+        <v>8.680140807926657</v>
       </c>
       <c r="D20">
-        <v>5.921198595493454</v>
+        <v>5.99640905628083</v>
       </c>
       <c r="E20">
-        <v>9.295469894957062</v>
+        <v>9.197418347453311</v>
       </c>
       <c r="F20">
-        <v>21.04143003519015</v>
+        <v>19.84220383400191</v>
       </c>
       <c r="G20">
-        <v>2.094086234729154</v>
+        <v>3.667984775804661</v>
       </c>
       <c r="H20">
-        <v>1.646965541132226</v>
+        <v>1.627463620650147</v>
       </c>
       <c r="I20">
-        <v>2.676742401561471</v>
+        <v>2.533933485783022</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>16.22868360323177</v>
+        <v>15.19515647626475</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>12.3016900458168</v>
       </c>
       <c r="M20">
-        <v>13.25473910393557</v>
+        <v>10.26834532594281</v>
       </c>
       <c r="N20">
-        <v>8.103519509056584</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>13.26554842016228</v>
       </c>
       <c r="P20">
-        <v>12.50025767240889</v>
+        <v>8.221325827988892</v>
       </c>
       <c r="Q20">
-        <v>16.74581112285377</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.29174753238049</v>
+      </c>
+      <c r="S20">
+        <v>15.71925023643589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.4008640084853</v>
+        <v>16.71911655991053</v>
       </c>
       <c r="C21">
-        <v>8.610338165864778</v>
+        <v>8.722790991895222</v>
       </c>
       <c r="D21">
-        <v>6.11254947173052</v>
+        <v>6.385614717527025</v>
       </c>
       <c r="E21">
-        <v>9.734452017738215</v>
+        <v>9.667265074304753</v>
       </c>
       <c r="F21">
-        <v>21.65412272859547</v>
+        <v>19.53961130752278</v>
       </c>
       <c r="G21">
-        <v>2.089778880842066</v>
+        <v>9.847002742006291</v>
       </c>
       <c r="H21">
-        <v>1.717261998063169</v>
+        <v>1.8056283445049</v>
       </c>
       <c r="I21">
-        <v>2.518844722372663</v>
+        <v>2.626629126515224</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>16.34685358082534</v>
+        <v>14.8449312226673</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>11.92135127306404</v>
       </c>
       <c r="M21">
-        <v>13.99483042500808</v>
+        <v>10.19160339211457</v>
       </c>
       <c r="N21">
-        <v>8.537146575398959</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>13.74497718129262</v>
       </c>
       <c r="P21">
-        <v>12.32630089505978</v>
+        <v>8.611433472137636</v>
       </c>
       <c r="Q21">
-        <v>16.98811299532754</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.14664135624773</v>
+      </c>
+      <c r="S21">
+        <v>15.27621663853286</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.03722176653655</v>
+        <v>17.19676812461161</v>
       </c>
       <c r="C22">
-        <v>8.770871644445032</v>
+        <v>8.752573780157109</v>
       </c>
       <c r="D22">
-        <v>6.238594118579761</v>
+        <v>6.648807550771704</v>
       </c>
       <c r="E22">
-        <v>9.941386856987835</v>
+        <v>9.907724764135709</v>
       </c>
       <c r="F22">
-        <v>22.0315625059644</v>
+        <v>19.27654970355071</v>
       </c>
       <c r="G22">
-        <v>2.087051115043387</v>
+        <v>14.76901298404668</v>
       </c>
       <c r="H22">
-        <v>1.856912102748728</v>
+        <v>1.917122460600727</v>
       </c>
       <c r="I22">
-        <v>2.62248081403878</v>
+        <v>2.698796754334691</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>16.41207516190498</v>
+        <v>14.58190234841342</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>11.66291842480591</v>
       </c>
       <c r="M22">
-        <v>14.4543854794909</v>
+        <v>10.11182848759765</v>
       </c>
       <c r="N22">
-        <v>8.74447413882657</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>14.02952511705178</v>
       </c>
       <c r="P22">
-        <v>12.21314501379297</v>
+        <v>8.789632662776512</v>
       </c>
       <c r="Q22">
-        <v>17.13335067946293</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.06332924403317</v>
+      </c>
+      <c r="S22">
+        <v>14.9375686570353</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.71468348398549</v>
+        <v>16.9777267146785</v>
       </c>
       <c r="C23">
-        <v>8.673720089592095</v>
+        <v>8.74722975150849</v>
       </c>
       <c r="D23">
-        <v>6.167814598702932</v>
+        <v>6.486121696489425</v>
       </c>
       <c r="E23">
-        <v>9.838616759673913</v>
+        <v>9.776142514211445</v>
       </c>
       <c r="F23">
-        <v>21.85181330016692</v>
+        <v>19.53441386890188</v>
       </c>
       <c r="G23">
-        <v>2.088483495108706</v>
+        <v>11.32785902908098</v>
       </c>
       <c r="H23">
-        <v>1.783591819000892</v>
+        <v>1.860354477361525</v>
       </c>
       <c r="I23">
-        <v>2.561827264387984</v>
+        <v>2.655255614301235</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>16.39534984166013</v>
+        <v>14.78497233960005</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>11.84095199820211</v>
       </c>
       <c r="M23">
-        <v>14.21186589292654</v>
+        <v>10.20866901983062</v>
       </c>
       <c r="N23">
-        <v>8.632922364678459</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>13.90569172578151</v>
       </c>
       <c r="P23">
-        <v>12.27425640800711</v>
+        <v>8.697683486757084</v>
       </c>
       <c r="Q23">
-        <v>17.07222602535612</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.10458362336139</v>
+      </c>
+      <c r="S23">
+        <v>15.20627991176741</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.42734557087353</v>
+        <v>15.96877607318306</v>
       </c>
       <c r="C24">
-        <v>8.317944900409319</v>
+        <v>8.627285737853551</v>
       </c>
       <c r="D24">
-        <v>5.898120428674979</v>
+        <v>5.971541400597487</v>
       </c>
       <c r="E24">
-        <v>9.426199764972619</v>
+        <v>9.322269315220039</v>
       </c>
       <c r="F24">
-        <v>21.14077352412341</v>
+        <v>19.94386001670374</v>
       </c>
       <c r="G24">
-        <v>2.094048462437161</v>
+        <v>3.626356957020541</v>
       </c>
       <c r="H24">
-        <v>1.624656796222528</v>
+        <v>1.632065731198466</v>
       </c>
       <c r="I24">
-        <v>2.65556710286734</v>
+        <v>2.50857585745011</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>16.31045673655334</v>
+        <v>15.2726736379428</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>12.35998866912152</v>
       </c>
       <c r="M24">
-        <v>13.25195282276586</v>
+        <v>10.32810747530642</v>
       </c>
       <c r="N24">
-        <v>8.200243720503439</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>13.2646154383437</v>
       </c>
       <c r="P24">
-        <v>12.50657192752902</v>
+        <v>8.318607503047167</v>
       </c>
       <c r="Q24">
-        <v>16.82466219562094</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.29441249563267</v>
+      </c>
+      <c r="S24">
+        <v>15.79880783017872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.95280541633728</v>
+        <v>14.5405413052521</v>
       </c>
       <c r="C25">
-        <v>7.919398684117215</v>
+        <v>8.190030807477706</v>
       </c>
       <c r="D25">
-        <v>5.590925185094146</v>
+        <v>5.596426332327847</v>
       </c>
       <c r="E25">
-        <v>8.957338072796952</v>
+        <v>8.920843278977623</v>
       </c>
       <c r="F25">
-        <v>20.38765378217281</v>
+        <v>19.3265673004634</v>
       </c>
       <c r="G25">
-        <v>2.100298145222071</v>
+        <v>4.051642010353905</v>
       </c>
       <c r="H25">
-        <v>1.954864345632108</v>
+        <v>1.777246911530119</v>
       </c>
       <c r="I25">
-        <v>2.915177034279982</v>
+        <v>2.721340093779814</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>16.23662289532897</v>
+        <v>15.29011687330934</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>12.58038166771803</v>
       </c>
       <c r="M25">
-        <v>12.13130907253993</v>
+        <v>10.06427680856272</v>
       </c>
       <c r="N25">
-        <v>7.707965119948406</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>12.20117896820521</v>
       </c>
       <c r="P25">
-        <v>12.76209250961153</v>
+        <v>7.838413274150914</v>
       </c>
       <c r="Q25">
-        <v>16.58169148260029</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.51300145484419</v>
+      </c>
+      <c r="S25">
+        <v>15.64683483263229</v>
       </c>
     </row>
   </sheetData>
